--- a/ScanRig_BOM_v3.xlsx
+++ b/ScanRig_BOM_v3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\_Publish\Scanner\Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vojo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57208611-8A8E-4BF4-B21A-6B29A12E7C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480FAD7A-A999-422D-BCC4-D1CD59F5E31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C5AA4F6F-EB5F-4689-A1E0-1B2922876BDD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="124">
   <si>
     <t>2040 extrusion</t>
   </si>
@@ -394,6 +394,18 @@
   </si>
   <si>
     <t>https://www.amazon.com/FANAUE-CQL-01-Universal-Compatible-Arca-Swiss/dp/B0CN4BQLRV/ref=sr_1_34</t>
+  </si>
+  <si>
+    <t>160mm</t>
+  </si>
+  <si>
+    <t>Couldn't find a set with 160mm belt</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32829827298.html</t>
+  </si>
+  <si>
+    <t>160-2GT-80Teeth Timing Belt</t>
   </si>
 </sst>
 </file>
@@ -839,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA621A6-A0FB-4EFE-B2AA-EE890DBFF393}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:I57"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,166 +1330,170 @@
     </row>
     <row r="33" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="18">
+        <v>1</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18" t="s">
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E34" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C35" s="9">
         <v>1</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="4" t="s">
+      <c r="D35" s="9"/>
+      <c r="E35" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+    <row r="36" spans="1:5" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B37" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C37" s="18">
         <v>3</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D37" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E37" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C38" s="10">
         <v>3</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="4" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="4" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="9">
-        <v>1</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C39" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="9">
+        <v>2</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="4"/>
-    </row>
     <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="9">
+      <c r="B42" s="6"/>
+      <c r="C42" s="9">
         <v>1</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="4" t="s">
+      <c r="D42" s="9"/>
+      <c r="E42" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+    <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="10">
+      <c r="B43" s="7"/>
+      <c r="C43" s="10">
         <v>4</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="4" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="9">
-        <v>1</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="9">
@@ -1485,110 +1501,106 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="9">
+        <v>2</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>101</v>
-      </c>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" s="17"/>
       <c r="C50" s="18"/>
       <c r="D50" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
+      <c r="D51" s="18" t="s">
+        <v>106</v>
+      </c>
       <c r="E51" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F52" s="19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+    <row r="53" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="19" t="s">
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="22"/>
-      <c r="D56" s="22" t="s">
-        <v>118</v>
-      </c>
+      <c r="D56" s="22"/>
       <c r="E56" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
@@ -1597,18 +1609,35 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+      <c r="D57" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="E57" s="19" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1625,14 +1654,14 @@
     <hyperlink ref="E23" r:id="rId11" xr:uid="{ED560C9B-3292-48E1-833F-A80054EBC9D4}"/>
     <hyperlink ref="E25" r:id="rId12" xr:uid="{69A0F3F6-DCB6-42EE-8CEC-852A66E9F0A9}"/>
     <hyperlink ref="E6" r:id="rId13" xr:uid="{104DBA1F-9401-4CCF-A2E2-DB4E363B6416}"/>
-    <hyperlink ref="E36" r:id="rId14" xr:uid="{73695696-86A8-4E92-83C9-1F5C3483317F}"/>
-    <hyperlink ref="E37" r:id="rId15" xr:uid="{C9BF8DEF-4F40-4D43-8EA7-A6CAE81AC84A}"/>
-    <hyperlink ref="E38" r:id="rId16" xr:uid="{4D6E31ED-9468-4582-A36E-7BF37C63F7F8}"/>
-    <hyperlink ref="E41" r:id="rId17" xr:uid="{F5EC3F05-2C9E-4003-B719-0B2C315129FC}"/>
-    <hyperlink ref="E45" r:id="rId18" xr:uid="{AF53EFC8-BFF6-47AD-ACA6-241F9E43F05E}"/>
-    <hyperlink ref="E46" r:id="rId19" xr:uid="{79FBF8B1-EBA0-451D-9AAB-17C29F37D2B4}"/>
-    <hyperlink ref="E47" r:id="rId20" xr:uid="{091FD985-9958-489F-99BB-7B3874206CC6}"/>
-    <hyperlink ref="E39" r:id="rId21" xr:uid="{37B8AF89-6F83-4153-860A-F89189B9C48A}"/>
+    <hyperlink ref="E37" r:id="rId14" xr:uid="{73695696-86A8-4E92-83C9-1F5C3483317F}"/>
+    <hyperlink ref="E38" r:id="rId15" xr:uid="{C9BF8DEF-4F40-4D43-8EA7-A6CAE81AC84A}"/>
+    <hyperlink ref="E39" r:id="rId16" xr:uid="{4D6E31ED-9468-4582-A36E-7BF37C63F7F8}"/>
+    <hyperlink ref="E42" r:id="rId17" xr:uid="{F5EC3F05-2C9E-4003-B719-0B2C315129FC}"/>
+    <hyperlink ref="E46" r:id="rId18" xr:uid="{AF53EFC8-BFF6-47AD-ACA6-241F9E43F05E}"/>
+    <hyperlink ref="E47" r:id="rId19" xr:uid="{79FBF8B1-EBA0-451D-9AAB-17C29F37D2B4}"/>
+    <hyperlink ref="E48" r:id="rId20" xr:uid="{091FD985-9958-489F-99BB-7B3874206CC6}"/>
+    <hyperlink ref="E40" r:id="rId21" xr:uid="{37B8AF89-6F83-4153-860A-F89189B9C48A}"/>
     <hyperlink ref="E2" r:id="rId22" xr:uid="{958FC0C2-B957-4973-97F3-03FE49A45B36}"/>
     <hyperlink ref="E18" r:id="rId23" xr:uid="{2DAACD41-6538-49DC-B755-A604B7D1759C}"/>
     <hyperlink ref="E17" r:id="rId24" xr:uid="{3844726A-C05C-4D0A-B1C3-12223B7958BD}"/>
@@ -1640,20 +1669,21 @@
     <hyperlink ref="E14" r:id="rId26" xr:uid="{8A5F6684-635C-471E-B671-AA24BF3529DF}"/>
     <hyperlink ref="E13" r:id="rId27" xr:uid="{E11E4467-67BE-427B-837F-3FB4472D81EC}"/>
     <hyperlink ref="E19" r:id="rId28" xr:uid="{7AD11B90-513B-48C7-ACE4-472F79E8FB1E}"/>
-    <hyperlink ref="E34" r:id="rId29" xr:uid="{8FB7FCC3-4D76-448A-BCFD-210616048099}"/>
-    <hyperlink ref="E42" r:id="rId30" xr:uid="{1E2B8D2B-4432-4CCC-A4BA-F1A439DC8BF0}"/>
+    <hyperlink ref="E35" r:id="rId29" xr:uid="{8FB7FCC3-4D76-448A-BCFD-210616048099}"/>
+    <hyperlink ref="E43" r:id="rId30" xr:uid="{1E2B8D2B-4432-4CCC-A4BA-F1A439DC8BF0}"/>
     <hyperlink ref="E15" r:id="rId31" xr:uid="{66A99E3E-33E2-47E3-8FDC-2E1995D22BBA}"/>
     <hyperlink ref="E26" r:id="rId32" xr:uid="{A0856796-C447-4AFB-B8EF-6E13ECD4DA06}"/>
-    <hyperlink ref="E33" r:id="rId33" xr:uid="{147082B4-D0DC-4A00-8FBC-DBFC5C9737E6}"/>
+    <hyperlink ref="E34" r:id="rId33" xr:uid="{147082B4-D0DC-4A00-8FBC-DBFC5C9737E6}"/>
     <hyperlink ref="E22" r:id="rId34" xr:uid="{C48B5758-EBE1-4474-AA85-705684C9B144}"/>
-    <hyperlink ref="E49" r:id="rId35" xr:uid="{82484909-69F9-4189-9A31-DD0D06F8FB7D}"/>
-    <hyperlink ref="E50" r:id="rId36" xr:uid="{20487A07-C516-435A-8672-FF2B6900ECBC}"/>
-    <hyperlink ref="E51" r:id="rId37" xr:uid="{E33D7813-33F9-4D85-9E55-1C54CB5CE91E}"/>
-    <hyperlink ref="F51" r:id="rId38" xr:uid="{A14098CF-51BA-44AE-8A79-617CE7BF6813}"/>
-    <hyperlink ref="E52" r:id="rId39" xr:uid="{ECFF9F29-F79B-4B81-BCA3-43383D6795AE}"/>
-    <hyperlink ref="E57" r:id="rId40" xr:uid="{5DFCD677-ACA7-4E23-B8D5-022EC08F478C}"/>
-    <hyperlink ref="E55" r:id="rId41" xr:uid="{F690EB47-3A81-449B-976C-A19162C2D472}"/>
-    <hyperlink ref="E56" r:id="rId42" xr:uid="{F8E21FD7-B1D3-4BAC-8E96-31DAADE4BF2C}"/>
+    <hyperlink ref="E50" r:id="rId35" xr:uid="{82484909-69F9-4189-9A31-DD0D06F8FB7D}"/>
+    <hyperlink ref="E51" r:id="rId36" xr:uid="{20487A07-C516-435A-8672-FF2B6900ECBC}"/>
+    <hyperlink ref="E52" r:id="rId37" xr:uid="{E33D7813-33F9-4D85-9E55-1C54CB5CE91E}"/>
+    <hyperlink ref="F52" r:id="rId38" xr:uid="{A14098CF-51BA-44AE-8A79-617CE7BF6813}"/>
+    <hyperlink ref="E53" r:id="rId39" xr:uid="{ECFF9F29-F79B-4B81-BCA3-43383D6795AE}"/>
+    <hyperlink ref="E58" r:id="rId40" xr:uid="{5DFCD677-ACA7-4E23-B8D5-022EC08F478C}"/>
+    <hyperlink ref="E56" r:id="rId41" xr:uid="{F690EB47-3A81-449B-976C-A19162C2D472}"/>
+    <hyperlink ref="E57" r:id="rId42" xr:uid="{F8E21FD7-B1D3-4BAC-8E96-31DAADE4BF2C}"/>
+    <hyperlink ref="E33" r:id="rId43" xr:uid="{FFCA5E1C-F3E5-41E2-B07E-CFC5EA27C81B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
